--- a/MFEE52-PROJ member .xlsx
+++ b/MFEE52-PROJ member .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="員工的資料庫" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>員工</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,114 +35,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>權限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>據點/教練管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城訂單管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章/評論管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已完成的訂單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收藏的課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收藏的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購物車內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷史紀錄(上課、買東西的動態清表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李俊翰</t>
+  </si>
+  <si>
+    <t>蔡欣怡</t>
+  </si>
+  <si>
+    <t>林志宇</t>
+  </si>
+  <si>
+    <t>鄭婷婷</t>
+  </si>
+  <si>
+    <t>楊子翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>權限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>會員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員系統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>據點/教練管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課程管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城訂單管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章/評論管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>權限id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>Employee_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last_updated_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomuser1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testmail4321@gmail.com</t>
+  </si>
+  <si>
+    <t>examplemail567@gmail.com</t>
+  </si>
+  <si>
+    <t>quickmail1234@gmail.com</t>
   </si>
   <si>
     <t>user1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user7</t>
-  </si>
-  <si>
-    <t>user8</t>
-  </si>
-  <si>
-    <t>user9</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成的訂單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的課程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收藏的課程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收藏的商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>購物車內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歷史紀錄(上課、買東西的動態清表)</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailgenie89@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_created_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +249,26 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFECECEC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -184,21 +292,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,101 +600,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45395</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45405</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45396</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5">
+        <v>45406</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45397</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45407</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45398</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45408</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45399</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45409</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -578,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -593,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -601,25 +986,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -636,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -652,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -660,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -668,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -684,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -700,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
